--- a/students_export.xlsx
+++ b/students_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9130196323</t>
+          <t>9130664837</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,76 +500,6 @@
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>nehal</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9876543214</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>fhdf</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9130196323</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>2025-07-31</t>
         </is>
